--- a/fixed_income/Clase 03 Teoria Tasas/01_EjercicioTasasFwd.xlsx
+++ b/fixed_income/Clase 03 Teoria Tasas/01_EjercicioTasasFwd.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\Desarrollo\MEF\Catedras\Economía Financiera\economia-financiera\fixed_income\Clase 03 Teoria Tasas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CDD6D3-69E0-4DB5-AB72-40040F4AA4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89BD2F0-481E-4B23-A670-DD9936DE55E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DD312C38-F05E-487E-91AD-46B542BEE605}"/>
   </bookViews>
@@ -584,7 +584,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -601,28 +601,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -631,30 +617,19 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -674,6 +649,36 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -686,6 +691,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -698,29 +706,17 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1209,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8AF5D1-E6D0-4D08-A7F6-D9728A0BFCAC}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1228,15 +1224,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -1248,15 +1238,15 @@
       <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1268,14 +1258,14 @@
       <c r="C3">
         <v>1.5493085</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1313,15 +1303,12 @@
       <c r="F5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="22" t="s">
+      <c r="J5" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -1339,12 +1326,9 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="22" t="s">
+      <c r="J6" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -1356,19 +1340,19 @@
       <c r="C7">
         <v>2.0429537510000002</v>
       </c>
-      <c r="N7" s="40"/>
-      <c r="O7" s="41" t="s">
+      <c r="N7" s="30"/>
+      <c r="O7" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="52" t="s">
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="U7" s="42"/>
-      <c r="V7" s="43"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="32"/>
     </row>
     <row r="8" spans="1:22" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -1380,24 +1364,24 @@
       <c r="C8">
         <v>2.129166245</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="33" t="s">
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="U8" s="32"/>
-      <c r="V8" s="45"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="34"/>
     </row>
     <row r="9" spans="1:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -1409,22 +1393,22 @@
       <c r="C9">
         <v>2.1837192929999998</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="61" t="s">
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="T9" s="62"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="45"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="34"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1436,20 +1420,20 @@
       <c r="C10">
         <v>2.2417354629999999</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="45"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="34"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -1461,20 +1445,20 @@
       <c r="C11">
         <v>2.3116033479999998</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="45"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="34"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -1501,15 +1485,15 @@
       <c r="L12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="44"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="45"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="34"/>
     </row>
     <row r="13" spans="1:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -1521,19 +1505,19 @@
       <c r="C13">
         <v>2.203324769</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="24">
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="19">
         <v>2</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="20">
         <f>+C3/100</f>
         <v>1.5493085E-2</v>
       </c>
@@ -1546,15 +1530,15 @@
         <v>1.031226205682817</v>
       </c>
       <c r="L13" s="8"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="49"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="38"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1566,10 +1550,10 @@
       <c r="C14">
         <v>2.0442782880000001</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="24">
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -1578,7 +1562,7 @@
       <c r="H14" s="3">
         <v>3</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="21">
         <f>+C4/100</f>
         <v>1.6697956599999998E-2</v>
       </c>
@@ -1590,25 +1574,25 @@
         <f>+J14^H14</f>
         <v>1.0509349908174044</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="22">
         <f>+K14-1</f>
         <v>5.093499081740438E-2</v>
       </c>
-      <c r="N14" s="44"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="45"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="34"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="E15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="25" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -1617,67 +1601,65 @@
       <c r="H15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="44"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="45"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="34"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="45"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="34"/>
     </row>
     <row r="17" spans="5:22" x14ac:dyDescent="0.35">
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="53" t="s">
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="T17" s="54"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="45"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="34"/>
     </row>
     <row r="18" spans="5:22" x14ac:dyDescent="0.35">
-      <c r="N18" s="44"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="37"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="56"/>
       <c r="U18" s="57"/>
-      <c r="V18" s="45"/>
+      <c r="V18" s="34"/>
     </row>
     <row r="19" spans="5:22" x14ac:dyDescent="0.35">
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="23">
         <f>+F14-F13</f>
         <v>1</v>
       </c>
@@ -1695,15 +1677,15 @@
       <c r="M19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="44"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="37"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="56"/>
       <c r="U19" s="57"/>
-      <c r="V19" s="45"/>
+      <c r="V19" s="34"/>
     </row>
     <row r="20" spans="5:22" x14ac:dyDescent="0.35">
       <c r="J20" s="6" t="s">
@@ -1714,112 +1696,112 @@
         <f>+L19-1</f>
         <v>1.9111990197667073E-2</v>
       </c>
-      <c r="N20" s="44"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="37"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="56"/>
       <c r="U20" s="57"/>
-      <c r="V20" s="45"/>
+      <c r="V20" s="34"/>
     </row>
     <row r="21" spans="5:22" x14ac:dyDescent="0.35">
-      <c r="N21" s="44"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="37"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="56"/>
       <c r="U21" s="57"/>
-      <c r="V21" s="45"/>
+      <c r="V21" s="34"/>
     </row>
     <row r="22" spans="5:22" x14ac:dyDescent="0.35">
-      <c r="N22" s="44"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
       <c r="S22" s="58"/>
       <c r="T22" s="59"/>
       <c r="U22" s="60"/>
-      <c r="V22" s="45"/>
+      <c r="V22" s="34"/>
     </row>
     <row r="23" spans="5:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="45"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="34"/>
     </row>
     <row r="24" spans="5:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="45"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="34"/>
     </row>
     <row r="25" spans="5:22" x14ac:dyDescent="0.35">
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="49"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="38"/>
     </row>
     <row r="26" spans="5:22" x14ac:dyDescent="0.35">
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
     </row>
     <row r="27" spans="5:22" x14ac:dyDescent="0.35">
       <c r="F27" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27" s="16">
         <f>+(H31/H29)^(1/2) -1</f>
         <v>2.0715975566542699E-2</v>
       </c>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
     </row>
     <row r="28" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E28" s="8" t="s">
@@ -1837,50 +1819,50 @@
       <c r="J28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="17">
         <f>+(H31/H30)^1 -1</f>
         <v>2.2322485455871899E-2</v>
       </c>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
     </row>
     <row r="29" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E29" s="8">
         <v>2</v>
       </c>
       <c r="F29" s="9">
-        <f>+C3/100</f>
+        <f t="shared" ref="F29:F36" si="0">+C3/100</f>
         <v>1.5493085E-2</v>
       </c>
       <c r="G29" s="10">
-        <f t="shared" ref="G29:G36" si="0">1+F29</f>
+        <f t="shared" ref="G29:G36" si="1">1+F29</f>
         <v>1.0154930849999999</v>
       </c>
       <c r="H29" s="8">
         <f>+G29^E29</f>
         <v>1.031226205682817</v>
       </c>
-      <c r="M29" s="16" t="s">
+      <c r="M29" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="23"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="18"/>
     </row>
     <row r="30" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E30" s="8">
         <v>3</v>
       </c>
       <c r="F30" s="9">
-        <f>+C4/100</f>
+        <f t="shared" si="0"/>
         <v>1.6697956599999998E-2</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0166979566000001</v>
       </c>
       <c r="H30" s="8">
@@ -1890,81 +1872,81 @@
       <c r="J30" t="s">
         <v>26</v>
       </c>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
     </row>
     <row r="31" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E31" s="8">
         <v>4</v>
       </c>
       <c r="F31" s="9">
-        <f>+C5/100</f>
+        <f t="shared" si="0"/>
         <v>1.8101181090000001E-2</v>
       </c>
       <c r="G31" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.01810118109</v>
       </c>
-      <c r="H31" s="18">
-        <f t="shared" ref="H31:H36" si="1">+G31^E31</f>
+      <c r="H31" s="15">
+        <f t="shared" ref="H31:H36" si="2">+G31^E31</f>
         <v>1.0743944718649927</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="14">
         <f>+H29*(1+L20)*(1+K28)</f>
         <v>1.0743944718649927</v>
       </c>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
     </row>
     <row r="32" spans="5:22" x14ac:dyDescent="0.35">
       <c r="E32" s="8">
         <v>5</v>
       </c>
       <c r="F32" s="9">
-        <f>+C6/100</f>
+        <f t="shared" si="0"/>
         <v>1.916645984E-2</v>
       </c>
       <c r="G32" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0191664598400001</v>
       </c>
       <c r="H32" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0995769169565228</v>
       </c>
       <c r="K32" s="11">
         <f>+J31-H31</f>
         <v>0</v>
       </c>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E33" s="8">
         <v>6</v>
       </c>
       <c r="F33" s="9">
-        <f>+C7/100</f>
+        <f t="shared" si="0"/>
         <v>2.0429537510000002E-2</v>
       </c>
       <c r="G33" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0204295375100001</v>
       </c>
       <c r="H33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1290108813319817</v>
       </c>
     </row>
@@ -1973,15 +1955,15 @@
         <v>7</v>
       </c>
       <c r="F34" s="9">
-        <f>+C8/100</f>
+        <f t="shared" si="0"/>
         <v>2.1291662449999998E-2</v>
       </c>
       <c r="G34" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0212916624499999</v>
       </c>
       <c r="H34" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1589067841906047</v>
       </c>
     </row>
@@ -1990,15 +1972,15 @@
         <v>8</v>
       </c>
       <c r="F35" s="9">
-        <f>+C9/100</f>
+        <f t="shared" si="0"/>
         <v>2.1837192929999999E-2</v>
       </c>
       <c r="G35" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0218371929300001</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1886490538771708</v>
       </c>
     </row>
@@ -2007,71 +1989,71 @@
         <v>9</v>
       </c>
       <c r="F36" s="9">
-        <f>+C10/100</f>
+        <f t="shared" si="0"/>
         <v>2.2417354630000001E-2</v>
       </c>
       <c r="G36" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0224173546299999</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2208264044265293</v>
       </c>
     </row>
     <row r="37" spans="5:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K37" s="14" t="s">
+      <c r="K37" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="15"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="13"/>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="15"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="13"/>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="15"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="13"/>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="15"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="13"/>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="15"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="M29:Q32"/>
+    <mergeCell ref="F23:K25"/>
     <mergeCell ref="F17:L17"/>
     <mergeCell ref="S9:U12"/>
     <mergeCell ref="S17:U22"/>
     <mergeCell ref="K37:O41"/>
     <mergeCell ref="F8:J10"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="F2:J3"/>
-    <mergeCell ref="M29:Q32"/>
-    <mergeCell ref="F23:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
